--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1270 +397,1351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>22.88167405919945</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2.685324484148055</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>11.87128952878175</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>10.25471514034055</v>
+      </c>
+      <c r="F2">
         <v>12.45998408641103</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>28.42041290291265</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H2" t="n">
-        <v>79.03775628837478</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>89.29247142871533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>22.93025510815743</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.088123156770264</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>11.87128952878175</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>10.70057232035536</v>
+      </c>
+      <c r="F3">
         <v>12.82645420659959</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>24.01034883177103</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H3" t="n">
-        <v>75.44554205900192</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>86.14611437935729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>23.41606559773703</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.879727138903639</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>7.914193019187838</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>8.47128642028132</v>
+      </c>
+      <c r="F4">
         <v>9.283909711443508</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>16.17023492751926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H4" t="n">
-        <v>59.14351121273918</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>67.6147976330205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>27.1568063675</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.162252950429485</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>15.82838603837568</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>8.025429240266515</v>
+      </c>
+      <c r="F5">
         <v>13.43723774024719</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>18.13026340358221</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>1.19845204486975</v>
       </c>
-      <c r="H5" t="n">
-        <v>79.91339854500431</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>87.93882778527082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>28.51707573832291</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2.551058259940652</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>14.94903125846592</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>8.47128642028132</v>
+      </c>
+      <c r="F6">
         <v>14.04802127389478</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>16.660242046535</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H6" t="n">
-        <v>77.44449980408112</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>85.91578622436244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>28.1284273466592</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.236382744088707</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>11.43161213882688</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>10.70057232035536</v>
+      </c>
+      <c r="F7">
         <v>13.43723774024719</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>16.17023492751926</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H7" t="n">
-        <v>75.12296612426309</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>85.82353844461845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>32.88937014453935</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>5.907713865125721</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>15.82838603837568</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>11.14642950037016</v>
+      </c>
+      <c r="F8">
         <v>10.01684995182063</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>12.25017797539338</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.67783286281765</v>
       </c>
-      <c r="H8" t="n">
-        <v>78.57033083807241</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>89.71676033844258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>38.08754238304113</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.611194690488833</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9.672902579007358</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>9.808857960325742</v>
+      </c>
+      <c r="F9">
         <v>7.451559110500712</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>10.29014949933044</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>67.11334826236846</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>76.9222062226942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>36.38720566951251</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.9398635694518193</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9.233225189052478</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>16.05085848053303</v>
+      </c>
+      <c r="F10">
         <v>5.985678629746473</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>5.390078309173087</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H10" t="n">
-        <v>58.17574177591031</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>74.22660025644335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>26.28234748625671</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.8055973452444167</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>7.474515629232958</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>13.37571540044419</v>
+      </c>
+      <c r="F11">
         <v>2.687447548049437</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>8.330121023267498</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H11" t="n">
-        <v>45.81971944102498</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>59.19543484146917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>23.61038979356886</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2.416792035733249</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6.595160849323197</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>11.59228668038497</v>
+      </c>
+      <c r="F12">
         <v>2.565290841319916</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>4.410064071141617</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H12" t="n">
-        <v>39.83738800006079</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>51.42967468044576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>17.19769133111807</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.5370648968296111</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>5.715806069413439</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>11.59228668038497</v>
+      </c>
+      <c r="F13">
         <v>1.954507307672318</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>3.920056952125881</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H13" t="n">
-        <v>29.56481696613327</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>41.15710364651824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8.841750910348832</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.2685324484148056</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2.198386949774401</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>7.579572060251713</v>
+      </c>
+      <c r="F14">
         <v>1.465880480754238</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.470021357047206</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>14.24457214633948</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>21.8241442065912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>7.189995245778179</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.9398635694518193</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3.517419119639039</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>2.67514308008884</v>
+      </c>
+      <c r="F15">
         <v>3.664701201885596</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>2.450035595078676</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>17.76201473183331</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>20.43715781192215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>5.87830692391324</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8055973452444167</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="F16">
         <v>1.588037187483759</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>2.450035595078676</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="I16">
         <v>10.72197705172009</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.206349231225402</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.1342662242074028</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1.31903216986464</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>1.099410360565679</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.9800142380314703</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>6.739072223894594</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2.526214545813952</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1342662242074028</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.4396773899548799</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.6107835336475993</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>1.960028476062941</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>5.670970169686774</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.429052447898031</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.6713311210370138</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.8793547799097597</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>1.783428720059226</v>
+      </c>
+      <c r="F19">
         <v>1.465880480754238</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>1.960028476062941</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>7.405647305661984</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>9.18907602572121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>4.469456504132379</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.2685324484148056</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="F20">
         <v>1.343723774024719</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>4.410064071141617</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="I20">
         <v>10.49177679771352</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>15.0601251769678</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>9.672902579007358</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.67514308008884</v>
+      </c>
+      <c r="F21">
         <v>4.519798148992235</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>4.410064071141617</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H21" t="n">
-        <v>34.54506946667912</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>37.22021254676795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>25.7965369966771</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>12.75064430869152</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>15.60500130051823</v>
+      </c>
+      <c r="F22">
         <v>8.062342644148311</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>15.19022068948779</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H22" t="n">
-        <v>62.44223372060087</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>78.04723502111911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>33.326599585161</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6.155483459368318</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>14.26742976047381</v>
+      </c>
+      <c r="F23">
         <v>4.764111562451274</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>7.840113904251762</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H23" t="n">
-        <v>52.96848800180247</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>67.23591776227627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>32.30639755704384</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.148259587318444</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>10.55225735891712</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>12.48400104041458</v>
+      </c>
+      <c r="F24">
         <v>6.596462163394072</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>14.21020645145633</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H24" t="n">
-        <v>66.53265434505165</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>79.01665538546624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>27.93410315082736</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2.95385693256286</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>8.353870409142719</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>20.50943028068109</v>
+      </c>
+      <c r="F25">
         <v>11.84920055276342</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>14.21020645145633</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>2.15721368076555</v>
       </c>
-      <c r="H25" t="n">
-        <v>67.45845117751824</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>87.96788145819934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>23.56180874461091</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2.282525811525847</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>10.55225735891712</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>10.25471514034055</v>
+      </c>
+      <c r="F26">
         <v>13.31508103351767</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>33.81049121208572</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H26" t="n">
-        <v>84.24123538757911</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>94.49595052791966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>22.25012042274596</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.490921829392471</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>10.55225735891712</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>8.91714360029613</v>
+      </c>
+      <c r="F27">
         <v>14.53664810081287</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>30.87044849799132</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H27" t="n">
-        <v>82.17977702780763</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>91.09692062810376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>22.00721517795617</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.47692846628143</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>6.155483459368318</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>10.70057232035536</v>
+      </c>
+      <c r="F28">
         <v>7.81802923068927</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>16.660242046535</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.7190712269218498</v>
       </c>
-      <c r="H28" t="n">
-        <v>54.83696960775203</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>65.5375419281074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>27.20538741645796</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>4.162252950429485</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>19.7854825479696</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>13.37571540044419</v>
+      </c>
+      <c r="F29">
         <v>12.82645420659959</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>24.99036306980249</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.9175232717916</v>
       </c>
-      <c r="H29" t="n">
-        <v>90.88746346305071</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>104.2631788634949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>24.24194343002237</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2.013993363111041</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>15.82838603837568</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>7.133714880236904</v>
+      </c>
+      <c r="F30">
         <v>14.29233468735383</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>12.25017797539338</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.9587616358957998</v>
       </c>
-      <c r="H30" t="n">
-        <v>69.5855971301521</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>76.71931201038899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>28.95430517894454</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3.490921829392471</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>15.3887086484208</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>8.91714360029613</v>
+      </c>
+      <c r="F31">
         <v>12.21567067295199</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>17.15024916555073</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>1.19845204486975</v>
       </c>
-      <c r="H31" t="n">
-        <v>78.39830754013028</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>87.31545114042642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>33.61808587890877</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4.967850295673901</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>14.50935386851104</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>10.70057232035536</v>
+      </c>
+      <c r="F32">
         <v>10.01684995182063</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>22.05032035570809</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>1.19845204486975</v>
       </c>
-      <c r="H32" t="n">
-        <v>86.36091239549218</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>97.06148471584754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>38.67051497053667</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.208396017866625</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>7.034838239278078</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>8.91714360029613</v>
+      </c>
+      <c r="F33">
         <v>6.474305456664553</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>9.310135261298969</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>62.6981899456449</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>71.61533354594103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>40.1279464392755</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>6.155483459368318</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>15.60500130051823</v>
+      </c>
+      <c r="F34">
         <v>6.596462163394072</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>3.430049833110147</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H34" t="n">
-        <v>57.19212138571815</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>72.79712268623638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>28.07984629770125</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>5.715806069413439</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>12.03814386039977</v>
+      </c>
+      <c r="F35">
         <v>3.420387788426557</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>10.29014949933044</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H35" t="n">
-        <v>48.38836914544179</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>60.42651300584156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>26.71957692687836</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.8055973452444167</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>3.957096509593919</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>14.71328694048861</v>
+      </c>
+      <c r="F36">
         <v>2.931760961508477</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>4.410064071141617</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H36" t="n">
-        <v>39.30347663231468</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>54.0167635728033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>18.84944699568872</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.2685324484148056</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>4.836451289503679</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>10.70057232035536</v>
+      </c>
+      <c r="F37">
         <v>3.909014615344635</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>4.900071190157352</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.4793808179478999</v>
       </c>
-      <c r="H37" t="n">
-        <v>33.24289735705709</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>43.94346967741245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>9.716209791592124</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.2685324484148056</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2.198386949774401</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>7.579572060251713</v>
+      </c>
+      <c r="F38">
         <v>1.710193894213278</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>2.450035595078676</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>16.34335867907328</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>23.922930739325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>8.404521469727193</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.47692846628143</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>3.957096509593919</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.783428720059226</v>
+      </c>
+      <c r="F39">
         <v>2.687447548049437</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>1.960028476062941</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>18.48602246971492</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>20.26945118977414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>6.461279511408764</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.47692846628143</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="F40">
         <v>2.076664014401838</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>3.430049833110147</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40">
         <v>13.44492182520218</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>3.983646014552773</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1342662242074028</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1.31903216986464</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>1.099410360565679</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>1.470021357047206</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>8.006376126237699</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>3.400673427057245</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1342662242074028</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.8793547799097597</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.6107835336475993</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>1.960028476062941</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>6.985106440884947</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2.477633496855994</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.8793547799097597</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.891714360029613</v>
+      </c>
+      <c r="F43">
         <v>1.099410360565679</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>2.940042714094412</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>7.799240024048052</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>8.690954384077665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>4.420875455174416</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.2685324484148056</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="F44">
         <v>1.465880480754238</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>5.390078309173087</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44">
         <v>11.54536669351655</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>15.15728727488373</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>5.27612867945856</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>2.229285900074033</v>
+      </c>
+      <c r="F45">
         <v>6.107835336475994</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>4.410064071141617</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.9587616358957998</v>
       </c>
-      <c r="H45" t="n">
-        <v>32.3128756704779</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>34.54216157055193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>26.62241482896243</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1342662242074028</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>8.353870409142719</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>15.60500130051823</v>
+      </c>
+      <c r="F46">
         <v>8.184499350877831</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>20.09029187964514</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H46" t="n">
-        <v>63.62503310180947</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>79.2300344023277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>33.90957217265654</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.4027986726222084</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>7.474515629232958</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>13.37571540044419</v>
+      </c>
+      <c r="F47">
         <v>4.275484735533195</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>8.820128142283234</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2396904089739499</v>
       </c>
-      <c r="H47" t="n">
-        <v>55.12218976130209</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>68.49790516174629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>30.99470923517888</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>2.282525811525847</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>11.87128952878175</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>13.82157258045901</v>
+      </c>
+      <c r="F48">
         <v>6.840775576853114</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>12.74018509440912</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.9587616358957998</v>
       </c>
-      <c r="H48" t="n">
-        <v>65.68824688264451</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>79.50981946310351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>27.93410315082736</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2.95385693256286</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>8.353870409142719</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>20.50943028068109</v>
+      </c>
+      <c r="F49">
         <v>11.84920055276342</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>14.21020645145633</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>2.15721368076555</v>
       </c>
-      <c r="H49" t="n">
-        <v>67.45845117751824</v>
+      <c r="I49">
+        <v>87.96788145819934</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>22.88167405919945</v>
+        <v>101.4214742083436</v>
       </c>
       <c r="C2">
-        <v>2.685324484148055</v>
+        <v>11.90251933514273</v>
       </c>
       <c r="D2">
-        <v>11.87128952878175</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E2">
-        <v>10.25471514034055</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F2">
-        <v>12.45998408641103</v>
+        <v>55.22803757220021</v>
       </c>
       <c r="G2">
-        <v>28.42041290291265</v>
+        <v>125.9715598939912</v>
       </c>
       <c r="H2">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I2">
-        <v>89.29247142871533</v>
+        <v>395.7828463326842</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>22.93025510815743</v>
+        <v>101.6368064253464</v>
       </c>
       <c r="C3">
-        <v>3.088123156770264</v>
+        <v>13.68789723541414</v>
       </c>
       <c r="D3">
-        <v>11.87128952878175</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E3">
-        <v>10.70057232035536</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F3">
-        <v>12.82645420659959</v>
+        <v>56.85239161844139</v>
       </c>
       <c r="G3">
-        <v>24.01034883177103</v>
+        <v>106.4242488759581</v>
       </c>
       <c r="H3">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I3">
-        <v>86.14611437935729</v>
+        <v>381.836831303097</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>23.41606559773703</v>
+        <v>103.7901285953749</v>
       </c>
       <c r="C4">
-        <v>1.879727138903639</v>
+        <v>8.331763534599911</v>
       </c>
       <c r="D4">
-        <v>7.914193019187838</v>
+        <v>35.07912581477851</v>
       </c>
       <c r="E4">
-        <v>8.47128642028132</v>
+        <v>37.54840467367939</v>
       </c>
       <c r="F4">
-        <v>9.283909711443508</v>
+        <v>41.15030250477664</v>
       </c>
       <c r="G4">
-        <v>16.17023492751926</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H4">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I4">
-        <v>67.6147976330205</v>
+        <v>299.6980219409557</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>27.1568063675</v>
+        <v>120.3707093045946</v>
       </c>
       <c r="C5">
-        <v>4.162252950429485</v>
+        <v>18.44890496947123</v>
       </c>
       <c r="D5">
-        <v>15.82838603837568</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E5">
-        <v>8.025429240266515</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F5">
-        <v>13.43723774024719</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G5">
-        <v>18.13026340358221</v>
+        <v>80.36116751858054</v>
       </c>
       <c r="H5">
-        <v>1.19845204486975</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I5">
-        <v>87.93882778527082</v>
+        <v>389.7829123455246</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>28.51707573832291</v>
+        <v>126.4000113806745</v>
       </c>
       <c r="C6">
-        <v>2.551058259940652</v>
+        <v>11.30739336838559</v>
       </c>
       <c r="D6">
-        <v>14.94903125846592</v>
+        <v>66.26057098347054</v>
       </c>
       <c r="E6">
-        <v>8.47128642028132</v>
+        <v>37.54840467367939</v>
       </c>
       <c r="F6">
-        <v>14.04802127389478</v>
+        <v>62.26690510591202</v>
       </c>
       <c r="G6">
-        <v>16.660242046535</v>
+        <v>73.84539717923619</v>
       </c>
       <c r="H6">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I6">
-        <v>85.91578622436244</v>
+        <v>380.8159173187956</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>28.1284273466592</v>
+        <v>124.6773536446516</v>
       </c>
       <c r="C7">
-        <v>5.236382744088707</v>
+        <v>23.20991270352832</v>
       </c>
       <c r="D7">
-        <v>11.43161213882688</v>
+        <v>50.66984839912454</v>
       </c>
       <c r="E7">
-        <v>10.70057232035536</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F7">
-        <v>13.43723774024719</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G7">
-        <v>16.17023492751926</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H7">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I7">
-        <v>85.82353844461845</v>
+        <v>380.4070352680384</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>32.88937014453935</v>
+        <v>145.7799109109312</v>
       </c>
       <c r="C8">
-        <v>5.907713865125721</v>
+        <v>26.18554253731401</v>
       </c>
       <c r="D8">
-        <v>15.82838603837568</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E8">
-        <v>11.14642950037016</v>
+        <v>49.40579562326236</v>
       </c>
       <c r="F8">
-        <v>10.01684995182063</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G8">
-        <v>12.25017797539338</v>
+        <v>54.29808616120308</v>
       </c>
       <c r="H8">
-        <v>1.67783286281765</v>
+        <v>7.436880797353907</v>
       </c>
       <c r="I8">
-        <v>89.71676033844258</v>
+        <v>397.6634782568806</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>38.08754238304113</v>
+        <v>168.8204581302364</v>
       </c>
       <c r="C9">
-        <v>1.611194690488833</v>
+        <v>7.141511601085638</v>
       </c>
       <c r="D9">
-        <v>9.672902579007358</v>
+        <v>42.87448710695154</v>
       </c>
       <c r="E9">
-        <v>9.808857960325742</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F9">
-        <v>7.451559110500712</v>
+        <v>33.02853227357072</v>
       </c>
       <c r="G9">
-        <v>10.29014949933044</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="I9">
-        <v>76.9222062226942</v>
+        <v>340.9524816357257</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>36.38720566951251</v>
+        <v>161.2838305351366</v>
       </c>
       <c r="C10">
-        <v>0.9398635694518193</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D10">
-        <v>9.233225189052478</v>
+        <v>40.92564678390828</v>
       </c>
       <c r="E10">
-        <v>16.05085848053303</v>
+        <v>71.14434569749776</v>
       </c>
       <c r="F10">
-        <v>5.985678629746473</v>
+        <v>26.53111608860598</v>
       </c>
       <c r="G10">
-        <v>5.390078309173087</v>
+        <v>23.89115791092935</v>
       </c>
       <c r="H10">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I10">
-        <v>74.22660025644335</v>
+        <v>329.0043903258571</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>26.28234748625671</v>
+        <v>116.4947293985432</v>
       </c>
       <c r="C11">
-        <v>0.8055973452444167</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D11">
-        <v>7.474515629232958</v>
+        <v>33.13028549173527</v>
       </c>
       <c r="E11">
-        <v>13.37571540044419</v>
+        <v>59.28695474791482</v>
       </c>
       <c r="F11">
-        <v>2.687447548049437</v>
+        <v>11.91192967243534</v>
       </c>
       <c r="G11">
-        <v>8.330121023267498</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H11">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I11">
-        <v>59.19543484146917</v>
+        <v>262.3797652432687</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>23.61038979356886</v>
+        <v>104.6514574633864</v>
       </c>
       <c r="C12">
-        <v>2.416792035733249</v>
+        <v>10.71226740162846</v>
       </c>
       <c r="D12">
-        <v>6.595160849323197</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E12">
-        <v>11.59228668038497</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F12">
-        <v>2.565290841319916</v>
+        <v>11.37047832368828</v>
       </c>
       <c r="G12">
-        <v>4.410064071141617</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H12">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I12">
-        <v>51.42967468044576</v>
+        <v>227.9585580430569</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>17.19769133111807</v>
+        <v>76.22760481900977</v>
       </c>
       <c r="C13">
-        <v>0.5370648968296111</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D13">
-        <v>5.715806069413439</v>
+        <v>25.33492419956227</v>
       </c>
       <c r="E13">
-        <v>11.59228668038497</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F13">
-        <v>1.954507307672318</v>
+        <v>8.663221579952976</v>
       </c>
       <c r="G13">
-        <v>3.920056952125881</v>
+        <v>17.37538757158498</v>
       </c>
       <c r="H13">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I13">
-        <v>41.15710364651824</v>
+        <v>182.4260810278105</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>8.841750910348832</v>
+        <v>39.19046349451916</v>
       </c>
       <c r="C14">
-        <v>0.2685324484148056</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D14">
-        <v>2.198386949774401</v>
+        <v>9.744201615216257</v>
       </c>
       <c r="E14">
-        <v>7.579572060251713</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F14">
-        <v>1.465880480754238</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G14">
-        <v>1.470021357047206</v>
+        <v>6.51577033934437</v>
       </c>
       <c r="I14">
-        <v>21.8241442065912</v>
+        <v>96.73404459137717</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>7.189995245778179</v>
+        <v>31.86916811642218</v>
       </c>
       <c r="C15">
-        <v>0.9398635694518193</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D15">
-        <v>3.517419119639039</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E15">
-        <v>2.67514308008884</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F15">
-        <v>3.664701201885596</v>
+        <v>16.24354046241183</v>
       </c>
       <c r="G15">
-        <v>2.450035595078676</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I15">
-        <v>20.43715781192215</v>
+        <v>90.58632111230355</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>5.87830692391324</v>
+        <v>26.05519825734515</v>
       </c>
       <c r="C16">
-        <v>0.8055973452444167</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="F16">
-        <v>1.588037187483759</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G16">
-        <v>2.450035595078676</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I16">
-        <v>10.72197705172009</v>
+        <v>47.52443882384038</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>3.206349231225402</v>
+        <v>14.21192632218827</v>
       </c>
       <c r="C17">
-        <v>0.1342662242074028</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D17">
-        <v>1.31903216986464</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="F17">
-        <v>1.099410360565679</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G17">
-        <v>0.9800142380314703</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I17">
-        <v>6.739072223894594</v>
+        <v>29.87048228969495</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.526214545813952</v>
+        <v>11.19727528414834</v>
       </c>
       <c r="C18">
-        <v>0.1342662242074028</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D18">
-        <v>0.4396773899548799</v>
+        <v>1.948840323043251</v>
       </c>
       <c r="F18">
-        <v>0.6107835336475993</v>
+        <v>2.707256743735305</v>
       </c>
       <c r="G18">
-        <v>1.960028476062941</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I18">
-        <v>5.670970169686774</v>
+        <v>25.13619210347652</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.429052447898031</v>
+        <v>10.76661085014263</v>
       </c>
       <c r="C19">
-        <v>0.6713311210370138</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D19">
-        <v>0.8793547799097597</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="E19">
-        <v>1.783428720059226</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F19">
-        <v>1.465880480754238</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G19">
-        <v>1.960028476062941</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I19">
-        <v>9.18907602572121</v>
+        <v>40.72995860049402</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>4.469456504132379</v>
+        <v>19.81056396426244</v>
       </c>
       <c r="C20">
-        <v>0.2685324484148056</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="F20">
-        <v>1.343723774024719</v>
+        <v>5.955964836217671</v>
       </c>
       <c r="G20">
-        <v>4.410064071141617</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="I20">
-        <v>10.49177679771352</v>
+        <v>46.50409175202749</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>15.0601251769678</v>
+        <v>66.75298727088432</v>
       </c>
       <c r="C21">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D21">
-        <v>9.672902579007358</v>
+        <v>42.87448710695154</v>
       </c>
       <c r="E21">
-        <v>2.67514308008884</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F21">
-        <v>4.519798148992235</v>
+        <v>20.03369990364126</v>
       </c>
       <c r="G21">
-        <v>4.410064071141617</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H21">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I21">
-        <v>37.22021254676795</v>
+        <v>164.9760772343228</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>25.7965369966771</v>
+        <v>114.3414072285148</v>
       </c>
       <c r="C22">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D22">
-        <v>12.75064430869152</v>
+        <v>56.51636936825429</v>
       </c>
       <c r="E22">
-        <v>15.60500130051823</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F22">
-        <v>8.062342644148311</v>
+        <v>35.73578901730603</v>
       </c>
       <c r="G22">
-        <v>15.19022068948779</v>
+        <v>67.32962683989184</v>
       </c>
       <c r="H22">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I22">
-        <v>78.04723502111911</v>
+        <v>345.9390957692847</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>33.326599585161</v>
+        <v>147.7179008639568</v>
       </c>
       <c r="C23">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D23">
-        <v>6.155483459368318</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E23">
-        <v>14.26742976047381</v>
+        <v>63.23941839777578</v>
       </c>
       <c r="F23">
-        <v>4.764111562451274</v>
+        <v>21.11660260113538</v>
       </c>
       <c r="G23">
-        <v>7.840113904251762</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="H23">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I23">
-        <v>67.23591776227627</v>
+        <v>298.0186625138731</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>32.30639755704384</v>
+        <v>143.195924306897</v>
       </c>
       <c r="C24">
-        <v>2.148259587318444</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D24">
-        <v>10.55225735891712</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E24">
-        <v>12.48400104041458</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F24">
-        <v>6.596462163394072</v>
+        <v>29.23837283234129</v>
       </c>
       <c r="G24">
-        <v>14.21020645145633</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H24">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I24">
-        <v>79.01665538546624</v>
+        <v>350.2359860328772</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>27.93410315082736</v>
+        <v>123.8160247766402</v>
       </c>
       <c r="C25">
-        <v>2.95385693256286</v>
+        <v>13.092771268657</v>
       </c>
       <c r="D25">
-        <v>8.353870409142719</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E25">
-        <v>20.50943028068109</v>
+        <v>90.90666394680269</v>
       </c>
       <c r="F25">
-        <v>11.84920055276342</v>
+        <v>52.52078082846491</v>
       </c>
       <c r="G25">
-        <v>14.21020645145633</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H25">
-        <v>2.15721368076555</v>
+        <v>9.561703882312163</v>
       </c>
       <c r="I25">
-        <v>87.96788145819934</v>
+        <v>389.9116907876943</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>23.56180874461091</v>
+        <v>104.4361252463835</v>
       </c>
       <c r="C26">
-        <v>2.282525811525847</v>
+        <v>10.11714143487132</v>
       </c>
       <c r="D26">
-        <v>10.55225735891712</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E26">
-        <v>10.25471514034055</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F26">
-        <v>13.31508103351767</v>
+        <v>59.01819701342964</v>
       </c>
       <c r="G26">
-        <v>33.81049121208572</v>
+        <v>149.8627178049205</v>
       </c>
       <c r="H26">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I26">
-        <v>94.49595052791966</v>
+        <v>418.8469158534817</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>22.25012042274596</v>
+        <v>98.62215538730651</v>
       </c>
       <c r="C27">
-        <v>3.490921829392471</v>
+        <v>15.47327513568555</v>
       </c>
       <c r="D27">
-        <v>10.55225735891712</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E27">
-        <v>8.91714360029613</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F27">
-        <v>14.53664810081287</v>
+        <v>64.43271050090026</v>
       </c>
       <c r="G27">
-        <v>30.87044849799132</v>
+        <v>136.8311771262318</v>
       </c>
       <c r="H27">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I27">
-        <v>91.09692062810376</v>
+        <v>403.7809454867303</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>22.00721517795617</v>
+        <v>97.54549430229223</v>
       </c>
       <c r="C28">
-        <v>1.47692846628143</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D28">
-        <v>6.155483459368318</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E28">
-        <v>10.70057232035536</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F28">
-        <v>7.81802923068927</v>
+        <v>34.65288631981191</v>
       </c>
       <c r="G28">
-        <v>16.660242046535</v>
+        <v>73.84539717923619</v>
       </c>
       <c r="H28">
-        <v>0.7190712269218498</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I28">
-        <v>65.5375419281074</v>
+        <v>290.4907263840435</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>27.20538741645796</v>
+        <v>120.5860415215974</v>
       </c>
       <c r="C29">
-        <v>4.162252950429485</v>
+        <v>18.44890496947123</v>
       </c>
       <c r="D29">
-        <v>19.7854825479696</v>
+        <v>87.6978145369463</v>
       </c>
       <c r="E29">
-        <v>13.37571540044419</v>
+        <v>59.28695474791482</v>
       </c>
       <c r="F29">
-        <v>12.82645420659959</v>
+        <v>56.85239161844139</v>
       </c>
       <c r="G29">
-        <v>24.99036306980249</v>
+        <v>110.7680957688543</v>
       </c>
       <c r="H29">
-        <v>1.9175232717916</v>
+        <v>8.499292339833035</v>
       </c>
       <c r="I29">
-        <v>104.2631788634949</v>
+        <v>462.1394955030585</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>24.24194343002237</v>
+        <v>107.4507762844234</v>
       </c>
       <c r="C30">
-        <v>2.013993363111041</v>
+        <v>8.926889501357048</v>
       </c>
       <c r="D30">
-        <v>15.82838603837568</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E30">
-        <v>7.133714880236904</v>
+        <v>31.61970919888789</v>
       </c>
       <c r="F30">
-        <v>14.29233468735383</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G30">
-        <v>12.25017797539338</v>
+        <v>54.29808616120308</v>
       </c>
       <c r="H30">
-        <v>0.9587616358957998</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I30">
-        <v>76.71931201038899</v>
+        <v>340.0531667487511</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>28.95430517894454</v>
+        <v>128.3380013337002</v>
       </c>
       <c r="C31">
-        <v>3.490921829392471</v>
+        <v>15.47327513568555</v>
       </c>
       <c r="D31">
-        <v>15.3887086484208</v>
+        <v>68.20941130651379</v>
       </c>
       <c r="E31">
-        <v>8.91714360029613</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F31">
-        <v>12.21567067295199</v>
+        <v>54.14513487470609</v>
       </c>
       <c r="G31">
-        <v>17.15024916555073</v>
+        <v>76.01732062568432</v>
       </c>
       <c r="H31">
-        <v>1.19845204486975</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I31">
-        <v>87.31545114042642</v>
+        <v>387.0198374872954</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>33.61808587890877</v>
+        <v>149.009894165974</v>
       </c>
       <c r="C32">
-        <v>4.967850295673901</v>
+        <v>22.01966077001405</v>
       </c>
       <c r="D32">
-        <v>14.50935386851104</v>
+        <v>64.3117306604273</v>
       </c>
       <c r="E32">
-        <v>10.70057232035536</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F32">
-        <v>10.01684995182063</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G32">
-        <v>22.05032035570809</v>
+        <v>97.73655509016555</v>
       </c>
       <c r="H32">
-        <v>1.19845204486975</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I32">
-        <v>97.06148471584754</v>
+        <v>430.2184727945674</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>38.67051497053667</v>
+        <v>171.4044447342706</v>
       </c>
       <c r="C33">
-        <v>1.208396017866625</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D33">
-        <v>7.034838239278078</v>
+        <v>31.18144516869202</v>
       </c>
       <c r="E33">
-        <v>8.91714360029613</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F33">
-        <v>6.474305456664553</v>
+        <v>28.69692148359423</v>
       </c>
       <c r="G33">
-        <v>9.310135261298969</v>
+        <v>41.26654548251435</v>
       </c>
       <c r="I33">
-        <v>71.61533354594103</v>
+        <v>317.4301270684953</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>40.1279464392755</v>
+        <v>177.8644112443561</v>
       </c>
       <c r="C34">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D34">
-        <v>6.155483459368318</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E34">
-        <v>15.60500130051823</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F34">
-        <v>6.596462163394072</v>
+        <v>29.23837283234129</v>
       </c>
       <c r="G34">
-        <v>3.430049833110147</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="H34">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I34">
-        <v>72.79712268623638</v>
+        <v>322.6683275822367</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>28.07984629770125</v>
+        <v>124.4620214276488</v>
       </c>
       <c r="C35">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D35">
-        <v>5.715806069413439</v>
+        <v>25.33492419956227</v>
       </c>
       <c r="E35">
-        <v>12.03814386039977</v>
+        <v>53.35825927312332</v>
       </c>
       <c r="F35">
-        <v>3.420387788426557</v>
+        <v>15.16063776491771</v>
       </c>
       <c r="G35">
-        <v>10.29014949933044</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="H35">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I35">
-        <v>60.42651300584156</v>
+        <v>267.8364360258924</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>26.71957692687836</v>
+        <v>118.4327193515688</v>
       </c>
       <c r="C36">
-        <v>0.8055973452444167</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D36">
-        <v>3.957096509593919</v>
+        <v>17.53956290738926</v>
       </c>
       <c r="E36">
-        <v>14.71328694048861</v>
+        <v>65.21565022270627</v>
       </c>
       <c r="F36">
-        <v>2.931760961508477</v>
+        <v>12.99483236992946</v>
       </c>
       <c r="G36">
-        <v>4.410064071141617</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H36">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I36">
-        <v>54.0167635728033</v>
+        <v>239.425654755128</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>18.84944699568872</v>
+        <v>83.54890019710676</v>
       </c>
       <c r="C37">
-        <v>0.2685324484148056</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D37">
-        <v>4.836451289503679</v>
+        <v>21.43724355347577</v>
       </c>
       <c r="E37">
-        <v>10.70057232035536</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F37">
-        <v>3.909014615344635</v>
+        <v>17.32644315990595</v>
       </c>
       <c r="G37">
-        <v>4.900071190157352</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H37">
-        <v>0.4793808179478999</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I37">
-        <v>43.94346967741245</v>
+        <v>194.7764601917741</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>9.716209791592124</v>
+        <v>43.06644340057053</v>
       </c>
       <c r="C38">
-        <v>0.2685324484148056</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D38">
-        <v>2.198386949774401</v>
+        <v>9.744201615216257</v>
       </c>
       <c r="E38">
-        <v>7.579572060251713</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F38">
-        <v>1.710193894213278</v>
+        <v>7.580318882458855</v>
       </c>
       <c r="G38">
-        <v>2.450035595078676</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I38">
-        <v>23.922930739325</v>
+        <v>106.0367740878189</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>8.404521469727193</v>
+        <v>37.25247354149349</v>
       </c>
       <c r="C39">
-        <v>1.47692846628143</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D39">
-        <v>3.957096509593919</v>
+        <v>17.53956290738926</v>
       </c>
       <c r="E39">
-        <v>1.783428720059226</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F39">
-        <v>2.687447548049437</v>
+        <v>11.91192967243534</v>
       </c>
       <c r="G39">
-        <v>1.960028476062941</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I39">
-        <v>20.26945118977414</v>
+        <v>89.84297284116106</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>6.461279511408764</v>
+        <v>28.63918486137941</v>
       </c>
       <c r="C40">
-        <v>1.47692846628143</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="F40">
-        <v>2.076664014401838</v>
+        <v>9.204672928700035</v>
       </c>
       <c r="G40">
-        <v>3.430049833110147</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="I40">
-        <v>13.44492182520218</v>
+        <v>59.59370754954481</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.983646014552773</v>
+        <v>17.6572417942339</v>
       </c>
       <c r="C41">
-        <v>0.1342662242074028</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D41">
-        <v>1.31903216986464</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="F41">
-        <v>1.099410360565679</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G41">
-        <v>1.470021357047206</v>
+        <v>6.51577033934437</v>
       </c>
       <c r="I41">
-        <v>8.006376126237699</v>
+        <v>35.48772120818872</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.400673427057245</v>
+        <v>15.07325519019968</v>
       </c>
       <c r="C42">
-        <v>0.1342662242074028</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D42">
-        <v>0.8793547799097597</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="F42">
-        <v>0.6107835336475993</v>
+        <v>2.707256743735305</v>
       </c>
       <c r="G42">
-        <v>1.960028476062941</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I42">
-        <v>6.985106440884947</v>
+        <v>30.96101233257111</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.477633496855994</v>
+        <v>10.98194306714549</v>
       </c>
       <c r="C43">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D43">
-        <v>0.8793547799097597</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="E43">
-        <v>0.891714360029613</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F43">
-        <v>1.099410360565679</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G43">
-        <v>2.940042714094412</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="I43">
-        <v>8.690954384077665</v>
+        <v>38.52206808077668</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>4.420875455174416</v>
+        <v>19.59523174725958</v>
       </c>
       <c r="C44">
-        <v>0.2685324484148056</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="F44">
-        <v>1.465880480754238</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G44">
-        <v>5.390078309173087</v>
+        <v>23.89115791092935</v>
       </c>
       <c r="I44">
-        <v>11.54536669351655</v>
+        <v>51.17405777666794</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>15.15728727488373</v>
+        <v>67.18365170489002</v>
       </c>
       <c r="C45">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D45">
-        <v>5.27612867945856</v>
+        <v>23.38608387651902</v>
       </c>
       <c r="E45">
-        <v>2.229285900074033</v>
+        <v>9.881159124652468</v>
       </c>
       <c r="F45">
-        <v>6.107835336475994</v>
+        <v>27.07256743735304</v>
       </c>
       <c r="G45">
-        <v>4.410064071141617</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H45">
-        <v>0.9587616358957998</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I45">
-        <v>34.54216157055193</v>
+        <v>153.1057972316356</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>26.62241482896243</v>
+        <v>118.0020549175632</v>
       </c>
       <c r="C46">
-        <v>0.1342662242074028</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D46">
-        <v>8.353870409142719</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E46">
-        <v>15.60500130051823</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F46">
-        <v>8.184499350877831</v>
+        <v>36.27724036605309</v>
       </c>
       <c r="G46">
-        <v>20.09029187964514</v>
+        <v>89.04886130437306</v>
       </c>
       <c r="H46">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I46">
-        <v>79.2300344023277</v>
+        <v>351.1817741076147</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>33.90957217265654</v>
+        <v>150.3018874679911</v>
       </c>
       <c r="C47">
-        <v>0.4027986726222084</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D47">
-        <v>7.474515629232958</v>
+        <v>33.13028549173527</v>
       </c>
       <c r="E47">
-        <v>13.37571540044419</v>
+        <v>59.28695474791482</v>
       </c>
       <c r="F47">
-        <v>4.275484735533195</v>
+        <v>18.95079720614713</v>
       </c>
       <c r="G47">
-        <v>8.820128142283234</v>
+        <v>39.09462203606623</v>
       </c>
       <c r="H47">
-        <v>0.2396904089739499</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I47">
-        <v>68.49790516174629</v>
+        <v>303.6123363926051</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>30.99470923517888</v>
+        <v>137.3819544478199</v>
       </c>
       <c r="C48">
-        <v>2.282525811525847</v>
+        <v>10.11714143487132</v>
       </c>
       <c r="D48">
-        <v>11.87128952878175</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E48">
-        <v>13.82157258045901</v>
+        <v>61.26318657284531</v>
       </c>
       <c r="F48">
-        <v>6.840775576853114</v>
+        <v>30.32127552983542</v>
       </c>
       <c r="G48">
-        <v>12.74018509440912</v>
+        <v>56.47000960765119</v>
       </c>
       <c r="H48">
-        <v>0.9587616358957998</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I48">
-        <v>79.50981946310351</v>
+        <v>352.4219024851075</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>27.93410315082736</v>
+        <v>123.8160247766402</v>
       </c>
       <c r="C49">
-        <v>2.95385693256286</v>
+        <v>13.092771268657</v>
       </c>
       <c r="D49">
-        <v>8.353870409142719</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E49">
-        <v>20.50943028068109</v>
+        <v>90.90666394680269</v>
       </c>
       <c r="F49">
-        <v>11.84920055276342</v>
+        <v>52.52078082846491</v>
       </c>
       <c r="G49">
-        <v>14.21020645145633</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H49">
-        <v>2.15721368076555</v>
+        <v>9.561703882312163</v>
       </c>
       <c r="I49">
-        <v>87.96788145819934</v>
+        <v>389.9116907876943</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>101.4214742083436</v>
+        <v>22.5381053796319</v>
       </c>
       <c r="C2">
-        <v>11.90251933514273</v>
+        <v>2.645004296698384</v>
       </c>
       <c r="D2">
-        <v>52.61868872216778</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E2">
-        <v>45.45333197340135</v>
+        <v>10.10074043853363</v>
       </c>
       <c r="F2">
-        <v>55.22803757220021</v>
+        <v>12.27289723826672</v>
       </c>
       <c r="G2">
-        <v>125.9715598939912</v>
+        <v>27.99367997644248</v>
       </c>
       <c r="H2">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I2">
-        <v>395.7828463326842</v>
+        <v>87.95174362948539</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>101.6368064253464</v>
+        <v>22.58595698341031</v>
       </c>
       <c r="C3">
-        <v>13.68789723541414</v>
+        <v>3.041754941203142</v>
       </c>
       <c r="D3">
-        <v>52.61868872216778</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E3">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F3">
-        <v>56.85239161844139</v>
+        <v>12.63386480409809</v>
       </c>
       <c r="G3">
-        <v>106.4242488759581</v>
+        <v>23.64983308354622</v>
       </c>
       <c r="H3">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I3">
-        <v>381.836831303097</v>
+        <v>84.85262917846599</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>103.7901285953749</v>
+        <v>23.06447302119444</v>
       </c>
       <c r="C4">
-        <v>8.331763534599911</v>
+        <v>1.851503007688869</v>
       </c>
       <c r="D4">
-        <v>35.07912581477851</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E4">
-        <v>37.54840467367939</v>
+        <v>8.344089927484307</v>
       </c>
       <c r="F4">
-        <v>41.15030250477664</v>
+        <v>9.144511667728143</v>
       </c>
       <c r="G4">
-        <v>71.67347373278805</v>
+        <v>15.92743860728624</v>
       </c>
       <c r="H4">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I4">
-        <v>299.6980219409557</v>
+        <v>66.5995604313235</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>120.3707093045946</v>
+        <v>26.74904651213214</v>
       </c>
       <c r="C5">
-        <v>18.44890496947123</v>
+        <v>4.099756659882495</v>
       </c>
       <c r="D5">
-        <v>70.15825162955703</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E5">
-        <v>35.57217284874888</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F5">
-        <v>59.5596483621767</v>
+        <v>13.23547741381705</v>
       </c>
       <c r="G5">
-        <v>80.36116751858054</v>
+        <v>17.85803722635124</v>
       </c>
       <c r="H5">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I5">
-        <v>389.7829123455246</v>
+        <v>86.61842496567215</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>126.4000113806745</v>
+        <v>28.08889141792765</v>
       </c>
       <c r="C6">
-        <v>11.30739336838559</v>
+        <v>2.512754081863465</v>
       </c>
       <c r="D6">
-        <v>66.26057098347054</v>
+        <v>14.72457132966013</v>
       </c>
       <c r="E6">
-        <v>37.54840467367939</v>
+        <v>8.344089927484307</v>
       </c>
       <c r="F6">
-        <v>62.26690510591202</v>
+        <v>13.837090023536</v>
       </c>
       <c r="G6">
-        <v>73.84539717923619</v>
+        <v>16.41008826205249</v>
       </c>
       <c r="H6">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I6">
-        <v>380.8159173187956</v>
+        <v>84.62575940417679</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>124.6773536446516</v>
+        <v>27.70607858770035</v>
       </c>
       <c r="C7">
-        <v>23.20991270352832</v>
+        <v>5.157758378561849</v>
       </c>
       <c r="D7">
-        <v>50.66984839912454</v>
+        <v>11.25996631091656</v>
       </c>
       <c r="E7">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F7">
-        <v>59.5596483621767</v>
+        <v>13.23547741381705</v>
       </c>
       <c r="G7">
-        <v>71.67347373278805</v>
+        <v>15.92743860728624</v>
       </c>
       <c r="H7">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I7">
-        <v>380.4070352680384</v>
+        <v>84.53489672623077</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>145.7799109109312</v>
+        <v>32.39553575798472</v>
       </c>
       <c r="C8">
-        <v>26.18554253731401</v>
+        <v>5.819009452736446</v>
       </c>
       <c r="D8">
-        <v>70.15825162955703</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E8">
-        <v>49.40579562326236</v>
+        <v>10.9790656940583</v>
       </c>
       <c r="F8">
-        <v>44.399010597259</v>
+        <v>9.866446799390889</v>
       </c>
       <c r="G8">
-        <v>54.29808616120308</v>
+        <v>12.06624136915624</v>
       </c>
       <c r="H8">
-        <v>7.436880797353907</v>
+        <v>1.652640177189757</v>
       </c>
       <c r="I8">
-        <v>397.6634782568806</v>
+        <v>88.36966183486236</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>168.8204581302364</v>
+        <v>37.51565736227473</v>
       </c>
       <c r="C9">
-        <v>7.141511601085638</v>
+        <v>1.58700257801903</v>
       </c>
       <c r="D9">
-        <v>42.87448710695154</v>
+        <v>9.527663801544783</v>
       </c>
       <c r="E9">
-        <v>43.47710014847085</v>
+        <v>9.661577810771304</v>
       </c>
       <c r="F9">
-        <v>33.02853227357072</v>
+        <v>7.339673838571271</v>
       </c>
       <c r="G9">
-        <v>45.61039237541058</v>
+        <v>10.13564275009124</v>
       </c>
       <c r="I9">
-        <v>340.9524816357257</v>
+        <v>75.76721814127235</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>161.2838305351366</v>
+        <v>35.84085123003034</v>
       </c>
       <c r="C10">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D10">
-        <v>40.92564678390828</v>
+        <v>9.09458817420184</v>
       </c>
       <c r="E10">
-        <v>71.14434569749776</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F10">
-        <v>26.53111608860598</v>
+        <v>5.895803575245775</v>
       </c>
       <c r="G10">
-        <v>23.89115791092935</v>
+        <v>5.309146202428745</v>
       </c>
       <c r="H10">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I10">
-        <v>329.0043903258571</v>
+        <v>73.11208673907934</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>116.4947293985432</v>
+        <v>25.88771764412072</v>
       </c>
       <c r="C11">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="D11">
-        <v>33.13028549173527</v>
+        <v>7.362285664830063</v>
       </c>
       <c r="E11">
-        <v>59.28695474791482</v>
+        <v>13.17487883286996</v>
       </c>
       <c r="F11">
-        <v>11.91192967243534</v>
+        <v>2.647095482763409</v>
       </c>
       <c r="G11">
-        <v>36.92269858961809</v>
+        <v>8.205044131026243</v>
       </c>
       <c r="H11">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I11">
-        <v>262.3797652432687</v>
+        <v>58.30661449850416</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>104.6514574633864</v>
+        <v>23.25587943630808</v>
       </c>
       <c r="C12">
-        <v>10.71226740162846</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D12">
-        <v>29.23260484564878</v>
+        <v>6.496134410144171</v>
       </c>
       <c r="E12">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F12">
-        <v>11.37047832368828</v>
+        <v>2.526772960819618</v>
       </c>
       <c r="G12">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="H12">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I12">
-        <v>227.9585580430569</v>
+        <v>50.65745734290154</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>76.22760481900977</v>
+        <v>16.93946773755773</v>
       </c>
       <c r="C13">
-        <v>2.380503867028546</v>
+        <v>0.5290008593396768</v>
       </c>
       <c r="D13">
-        <v>25.33492419956227</v>
+        <v>5.629983155458282</v>
       </c>
       <c r="E13">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F13">
-        <v>8.663221579952976</v>
+        <v>1.925160351100661</v>
       </c>
       <c r="G13">
-        <v>17.37538757158498</v>
+        <v>3.861197238129996</v>
       </c>
       <c r="H13">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I13">
-        <v>182.4260810278105</v>
+        <v>40.53912911729122</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>39.19046349451916</v>
+        <v>8.70899188767093</v>
       </c>
       <c r="C14">
-        <v>1.190251933514273</v>
+        <v>0.2645004296698384</v>
       </c>
       <c r="D14">
-        <v>9.744201615216257</v>
+        <v>2.165378136714723</v>
       </c>
       <c r="E14">
-        <v>33.59594102381838</v>
+        <v>7.465764671959643</v>
       </c>
       <c r="F14">
-        <v>6.497416184964732</v>
+        <v>1.443870263325496</v>
       </c>
       <c r="G14">
-        <v>6.51577033934437</v>
+        <v>1.447948964298749</v>
       </c>
       <c r="I14">
-        <v>96.73404459137717</v>
+        <v>21.49645435363938</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>31.86916811642218</v>
+        <v>7.082037359204931</v>
       </c>
       <c r="C15">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D15">
-        <v>15.59072258434601</v>
+        <v>3.464605018743558</v>
       </c>
       <c r="E15">
-        <v>11.85739094958296</v>
+        <v>2.634975766573991</v>
       </c>
       <c r="F15">
-        <v>16.24354046241183</v>
+        <v>3.60967565831374</v>
       </c>
       <c r="G15">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I15">
-        <v>90.58632111230355</v>
+        <v>20.1302935805119</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>26.05519825734515</v>
+        <v>5.790044057187815</v>
       </c>
       <c r="C16">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="F16">
-        <v>7.038867533711793</v>
+        <v>1.564192785269288</v>
       </c>
       <c r="G16">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I16">
-        <v>47.52443882384038</v>
+        <v>10.56098640529787</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>14.21192632218827</v>
+        <v>3.158205849375171</v>
       </c>
       <c r="C17">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D17">
-        <v>5.846520969129754</v>
+        <v>1.299226882028834</v>
       </c>
       <c r="F17">
-        <v>4.873062138723547</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G17">
-        <v>4.343846892896246</v>
+        <v>0.9652993095324991</v>
       </c>
       <c r="I17">
-        <v>29.87048228969495</v>
+        <v>6.637884953265544</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>11.19727528414834</v>
+        <v>2.488283396477407</v>
       </c>
       <c r="C18">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D18">
-        <v>1.948840323043251</v>
+        <v>0.4330756273429447</v>
       </c>
       <c r="F18">
-        <v>2.707256743735305</v>
+        <v>0.6016126097189567</v>
       </c>
       <c r="G18">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="I18">
-        <v>25.13619210347652</v>
+        <v>5.585820467439226</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>10.76661085014263</v>
+        <v>2.392580188920585</v>
       </c>
       <c r="C19">
-        <v>2.975629833785681</v>
+        <v>0.6612510741745961</v>
       </c>
       <c r="D19">
-        <v>3.897680646086502</v>
+        <v>0.8661512546858895</v>
       </c>
       <c r="E19">
-        <v>7.904927299721972</v>
+        <v>1.756650511049328</v>
       </c>
       <c r="F19">
-        <v>6.497416184964732</v>
+        <v>1.443870263325496</v>
       </c>
       <c r="G19">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="I19">
-        <v>40.72995860049402</v>
+        <v>9.051101911220893</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>19.81056396426244</v>
+        <v>4.402347547613877</v>
       </c>
       <c r="C20">
-        <v>1.190251933514273</v>
+        <v>0.2645004296698384</v>
       </c>
       <c r="F20">
-        <v>5.955964836217671</v>
+        <v>1.323547741381705</v>
       </c>
       <c r="G20">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I20">
-        <v>46.50409175202749</v>
+        <v>10.33424261156167</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>66.75298727088432</v>
+        <v>14.83399717130762</v>
       </c>
       <c r="C21">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D21">
-        <v>42.87448710695154</v>
+        <v>9.527663801544783</v>
       </c>
       <c r="E21">
-        <v>11.85739094958296</v>
+        <v>2.634975766573991</v>
       </c>
       <c r="F21">
-        <v>20.03369990364126</v>
+        <v>4.451933311920279</v>
       </c>
       <c r="G21">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="H21">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I21">
-        <v>164.9760772343228</v>
+        <v>36.66135049651618</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>114.3414072285148</v>
+        <v>25.4092016063366</v>
       </c>
       <c r="C22">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D22">
-        <v>56.51636936825429</v>
+        <v>12.5591931929454</v>
       </c>
       <c r="E22">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F22">
-        <v>35.73578901730603</v>
+        <v>7.941286448290229</v>
       </c>
       <c r="G22">
-        <v>67.32962683989184</v>
+        <v>14.96213929775374</v>
       </c>
       <c r="H22">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I22">
-        <v>345.9390957692847</v>
+        <v>76.8753546153966</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>147.7179008639568</v>
+        <v>32.82620019199041</v>
       </c>
       <c r="C23">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D23">
-        <v>27.28376452260552</v>
+        <v>6.063058782801227</v>
       </c>
       <c r="E23">
-        <v>63.23941839777578</v>
+        <v>14.05320408839462</v>
       </c>
       <c r="F23">
-        <v>21.11660260113538</v>
+        <v>4.692578355807862</v>
       </c>
       <c r="G23">
-        <v>34.75077514316997</v>
+        <v>7.722394476259993</v>
       </c>
       <c r="H23">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I23">
-        <v>298.0186625138731</v>
+        <v>66.22636944752738</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>143.195924306897</v>
+        <v>31.82131651264378</v>
       </c>
       <c r="C24">
-        <v>9.522015468114184</v>
+        <v>2.116003437358707</v>
       </c>
       <c r="D24">
-        <v>46.77216775303803</v>
+        <v>10.39381505623067</v>
       </c>
       <c r="E24">
-        <v>55.33449109805383</v>
+        <v>12.2965535773453</v>
       </c>
       <c r="F24">
-        <v>29.23837283234129</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G24">
-        <v>62.98577994699559</v>
+        <v>13.99683998822124</v>
       </c>
       <c r="H24">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I24">
-        <v>350.2359860328772</v>
+        <v>77.83021911841719</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>123.8160247766402</v>
+        <v>27.51467217258672</v>
       </c>
       <c r="C25">
-        <v>13.092771268657</v>
+        <v>2.909504726368223</v>
       </c>
       <c r="D25">
-        <v>37.02796613782177</v>
+        <v>8.228436919515948</v>
       </c>
       <c r="E25">
-        <v>90.90666394680269</v>
+        <v>20.20148087706727</v>
       </c>
       <c r="F25">
-        <v>52.52078082846491</v>
+        <v>11.67128462854776</v>
       </c>
       <c r="G25">
-        <v>62.98577994699559</v>
+        <v>13.99683998822124</v>
       </c>
       <c r="H25">
-        <v>9.561703882312163</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I25">
-        <v>389.9116907876943</v>
+        <v>86.64704239726542</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>104.4361252463835</v>
+        <v>23.20802783252968</v>
       </c>
       <c r="C26">
-        <v>10.11714143487132</v>
+        <v>2.248253652193627</v>
       </c>
       <c r="D26">
-        <v>46.77216775303803</v>
+        <v>10.39381505623067</v>
       </c>
       <c r="E26">
-        <v>45.45333197340135</v>
+        <v>10.10074043853363</v>
       </c>
       <c r="F26">
-        <v>59.01819701342964</v>
+        <v>13.11515489187325</v>
       </c>
       <c r="G26">
-        <v>149.8627178049205</v>
+        <v>33.30282617887122</v>
       </c>
       <c r="H26">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I26">
-        <v>418.8469158534817</v>
+        <v>93.07709241188483</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>98.62215538730651</v>
+        <v>21.91603453051254</v>
       </c>
       <c r="C27">
-        <v>15.47327513568555</v>
+        <v>3.4385055857079</v>
       </c>
       <c r="D27">
-        <v>46.77216775303803</v>
+        <v>10.39381505623067</v>
       </c>
       <c r="E27">
-        <v>39.52463649860987</v>
+        <v>8.783252555246641</v>
       </c>
       <c r="F27">
-        <v>64.43271050090026</v>
+        <v>14.31838011131117</v>
       </c>
       <c r="G27">
-        <v>136.8311771262318</v>
+        <v>30.40692825027374</v>
       </c>
       <c r="H27">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I27">
-        <v>403.7809454867303</v>
+        <v>89.72909899705117</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>97.54549430229223</v>
+        <v>21.67677651162048</v>
       </c>
       <c r="C28">
-        <v>6.546385634328502</v>
+        <v>1.454752363184111</v>
       </c>
       <c r="D28">
-        <v>27.28376452260552</v>
+        <v>6.063058782801227</v>
       </c>
       <c r="E28">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F28">
-        <v>34.65288631981191</v>
+        <v>7.700641404402646</v>
       </c>
       <c r="G28">
-        <v>73.84539717923619</v>
+        <v>16.41008826205249</v>
       </c>
       <c r="H28">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I28">
-        <v>290.4907263840435</v>
+        <v>64.55349475200968</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>120.5860415215974</v>
+        <v>26.79689811591053</v>
       </c>
       <c r="C29">
-        <v>18.44890496947123</v>
+        <v>4.099756659882495</v>
       </c>
       <c r="D29">
-        <v>87.6978145369463</v>
+        <v>19.48840323043251</v>
       </c>
       <c r="E29">
-        <v>59.28695474791482</v>
+        <v>13.17487883286996</v>
       </c>
       <c r="F29">
-        <v>56.85239161844139</v>
+        <v>12.63386480409809</v>
       </c>
       <c r="G29">
-        <v>110.7680957688543</v>
+        <v>24.61513239307873</v>
       </c>
       <c r="H29">
-        <v>8.499292339833035</v>
+        <v>1.888731631074008</v>
       </c>
       <c r="I29">
-        <v>462.1394955030585</v>
+        <v>102.6976656673463</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>107.4507762844234</v>
+        <v>23.87795028542743</v>
       </c>
       <c r="C30">
-        <v>8.926889501357048</v>
+        <v>1.983753222523788</v>
       </c>
       <c r="D30">
-        <v>70.15825162955703</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E30">
-        <v>31.61970919888789</v>
+        <v>7.02660204419731</v>
       </c>
       <c r="F30">
-        <v>63.34980780340614</v>
+        <v>14.07773506742359</v>
       </c>
       <c r="G30">
-        <v>54.29808616120308</v>
+        <v>12.06624136915624</v>
       </c>
       <c r="H30">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I30">
-        <v>340.0531667487511</v>
+        <v>75.56737038861137</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>128.3380013337002</v>
+        <v>28.51955585193335</v>
       </c>
       <c r="C31">
-        <v>15.47327513568555</v>
+        <v>3.4385055857079</v>
       </c>
       <c r="D31">
-        <v>68.20941130651379</v>
+        <v>15.15764695700306</v>
       </c>
       <c r="E31">
-        <v>39.52463649860987</v>
+        <v>8.783252555246641</v>
       </c>
       <c r="F31">
-        <v>54.14513487470609</v>
+        <v>12.03225219437913</v>
       </c>
       <c r="G31">
-        <v>76.01732062568432</v>
+        <v>16.89273791681874</v>
       </c>
       <c r="H31">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I31">
-        <v>387.0198374872954</v>
+        <v>86.0044083305101</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>149.009894165974</v>
+        <v>33.11330981466089</v>
       </c>
       <c r="C32">
-        <v>22.01966077001405</v>
+        <v>4.893257948892011</v>
       </c>
       <c r="D32">
-        <v>64.3117306604273</v>
+        <v>14.29149570231717</v>
       </c>
       <c r="E32">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F32">
-        <v>44.399010597259</v>
+        <v>9.866446799390889</v>
       </c>
       <c r="G32">
-        <v>97.73655509016555</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H32">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I32">
-        <v>430.2184727945674</v>
+        <v>95.60410506545941</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>171.4044447342706</v>
+        <v>38.08987660761572</v>
       </c>
       <c r="C33">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D33">
-        <v>31.18144516869202</v>
+        <v>6.929210037487116</v>
       </c>
       <c r="E33">
-        <v>39.52463649860987</v>
+        <v>8.783252555246641</v>
       </c>
       <c r="F33">
-        <v>28.69692148359423</v>
+        <v>6.377093663020941</v>
       </c>
       <c r="G33">
-        <v>41.26654548251435</v>
+        <v>9.170343440558744</v>
       </c>
       <c r="I33">
-        <v>317.4301270684953</v>
+        <v>70.54002823744344</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>177.8644112443561</v>
+        <v>39.52542472096804</v>
       </c>
       <c r="C34">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D34">
-        <v>27.28376452260552</v>
+        <v>6.063058782801227</v>
       </c>
       <c r="E34">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F34">
-        <v>29.23837283234129</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G34">
-        <v>15.20346412513687</v>
+        <v>3.378547583363749</v>
       </c>
       <c r="H34">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I34">
-        <v>322.6683275822367</v>
+        <v>71.70407279605263</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>124.4620214276488</v>
+        <v>27.65822698392196</v>
       </c>
       <c r="C35">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D35">
-        <v>25.33492419956227</v>
+        <v>5.629983155458282</v>
       </c>
       <c r="E35">
-        <v>53.35825927312332</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F35">
-        <v>15.16063776491771</v>
+        <v>3.369030614426157</v>
       </c>
       <c r="G35">
-        <v>45.61039237541058</v>
+        <v>10.13564275009124</v>
       </c>
       <c r="H35">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I35">
-        <v>267.8364360258924</v>
+        <v>59.51920800575385</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>118.4327193515688</v>
+        <v>26.31838207812642</v>
       </c>
       <c r="C36">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="D36">
-        <v>17.53956290738926</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="E36">
-        <v>65.21565022270627</v>
+        <v>14.49236671615695</v>
       </c>
       <c r="F36">
-        <v>12.99483236992946</v>
+        <v>2.887740526650992</v>
       </c>
       <c r="G36">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="H36">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I36">
-        <v>239.425654755128</v>
+        <v>53.20570105669513</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>83.54890019710676</v>
+        <v>18.56642226602374</v>
       </c>
       <c r="C37">
-        <v>1.190251933514273</v>
+        <v>0.2645004296698384</v>
       </c>
       <c r="D37">
-        <v>21.43724355347577</v>
+        <v>4.763831900772391</v>
       </c>
       <c r="E37">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F37">
-        <v>17.32644315990595</v>
+        <v>3.850320702201323</v>
       </c>
       <c r="G37">
-        <v>21.71923446448123</v>
+        <v>4.826496547662497</v>
       </c>
       <c r="H37">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I37">
-        <v>194.7764601917741</v>
+        <v>43.28365782039425</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>43.06644340057053</v>
+        <v>9.570320755682339</v>
       </c>
       <c r="C38">
-        <v>1.190251933514273</v>
+        <v>0.2645004296698384</v>
       </c>
       <c r="D38">
-        <v>9.744201615216257</v>
+        <v>2.165378136714723</v>
       </c>
       <c r="E38">
-        <v>33.59594102381838</v>
+        <v>7.465764671959643</v>
       </c>
       <c r="F38">
-        <v>7.580318882458855</v>
+        <v>1.684515307213079</v>
       </c>
       <c r="G38">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I38">
-        <v>106.0367740878189</v>
+        <v>23.56372757507087</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>37.25247354149349</v>
+        <v>8.278327453665222</v>
       </c>
       <c r="C39">
-        <v>6.546385634328502</v>
+        <v>1.454752363184111</v>
       </c>
       <c r="D39">
-        <v>17.53956290738926</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="E39">
-        <v>7.904927299721972</v>
+        <v>1.756650511049328</v>
       </c>
       <c r="F39">
-        <v>11.91192967243534</v>
+        <v>2.647095482763409</v>
       </c>
       <c r="G39">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="I39">
-        <v>89.84297284116106</v>
+        <v>19.96510507581357</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>28.63918486137941</v>
+        <v>6.364263302528755</v>
       </c>
       <c r="C40">
-        <v>6.546385634328502</v>
+        <v>1.454752363184111</v>
       </c>
       <c r="F40">
-        <v>9.204672928700035</v>
+        <v>2.045482873044453</v>
       </c>
       <c r="G40">
-        <v>15.20346412513687</v>
+        <v>3.378547583363749</v>
       </c>
       <c r="I40">
-        <v>59.59370754954481</v>
+        <v>13.24304612212107</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>17.6572417942339</v>
+        <v>3.923831509829758</v>
       </c>
       <c r="C41">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D41">
-        <v>5.846520969129754</v>
+        <v>1.299226882028834</v>
       </c>
       <c r="F41">
-        <v>4.873062138723547</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G41">
-        <v>6.51577033934437</v>
+        <v>1.447948964298749</v>
       </c>
       <c r="I41">
-        <v>35.48772120818872</v>
+        <v>7.886160268486382</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>15.07325519019968</v>
+        <v>3.349612264488816</v>
       </c>
       <c r="C42">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D42">
-        <v>3.897680646086502</v>
+        <v>0.8661512546858895</v>
       </c>
       <c r="F42">
-        <v>2.707256743735305</v>
+        <v>0.6016126097189567</v>
       </c>
       <c r="G42">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="I42">
-        <v>30.96101233257111</v>
+        <v>6.880224962793579</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>10.98194306714549</v>
+        <v>2.440431792698996</v>
       </c>
       <c r="C43">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D43">
-        <v>3.897680646086502</v>
+        <v>0.8661512546858895</v>
       </c>
       <c r="E43">
-        <v>3.952463649860986</v>
+        <v>0.8783252555246638</v>
       </c>
       <c r="F43">
-        <v>4.873062138723547</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G43">
-        <v>13.03154067868874</v>
+        <v>2.895897928597497</v>
       </c>
       <c r="I43">
-        <v>38.52206808077668</v>
+        <v>8.560459573505927</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>19.59523174725958</v>
+        <v>4.354495943835465</v>
       </c>
       <c r="C44">
-        <v>1.190251933514273</v>
+        <v>0.2645004296698384</v>
       </c>
       <c r="F44">
-        <v>6.497416184964732</v>
+        <v>1.443870263325496</v>
       </c>
       <c r="G44">
-        <v>23.89115791092935</v>
+        <v>5.309146202428745</v>
       </c>
       <c r="I44">
-        <v>51.17405777666794</v>
+        <v>11.37201283925954</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>67.18365170489002</v>
+        <v>14.92970037886445</v>
       </c>
       <c r="C45">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D45">
-        <v>23.38608387651902</v>
+        <v>5.196907528115336</v>
       </c>
       <c r="E45">
-        <v>9.881159124652468</v>
+        <v>2.19581313881166</v>
       </c>
       <c r="F45">
-        <v>27.07256743735304</v>
+        <v>6.016126097189567</v>
       </c>
       <c r="G45">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="H45">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I45">
-        <v>153.1057972316356</v>
+        <v>34.02351049591902</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>118.0020549175632</v>
+        <v>26.2226788705696</v>
       </c>
       <c r="C46">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D46">
-        <v>37.02796613782177</v>
+        <v>8.228436919515948</v>
       </c>
       <c r="E46">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F46">
-        <v>36.27724036605309</v>
+        <v>8.061608970234019</v>
       </c>
       <c r="G46">
-        <v>89.04886130437306</v>
+        <v>19.78863584541623</v>
       </c>
       <c r="H46">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I46">
-        <v>351.1817741076147</v>
+        <v>78.0403942461366</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>150.3018874679911</v>
+        <v>33.40041943733138</v>
       </c>
       <c r="C47">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="D47">
-        <v>33.13028549173527</v>
+        <v>7.362285664830063</v>
       </c>
       <c r="E47">
-        <v>59.28695474791482</v>
+        <v>13.17487883286996</v>
       </c>
       <c r="F47">
-        <v>18.95079720614713</v>
+        <v>4.211288268032697</v>
       </c>
       <c r="G47">
-        <v>39.09462203606623</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="H47">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I47">
-        <v>303.6123363926051</v>
+        <v>67.4694080872456</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>137.3819544478199</v>
+        <v>30.52932321062666</v>
       </c>
       <c r="C48">
-        <v>10.11714143487132</v>
+        <v>2.248253652193627</v>
       </c>
       <c r="D48">
-        <v>52.61868872216778</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E48">
-        <v>61.26318657284531</v>
+        <v>13.61404146063229</v>
       </c>
       <c r="F48">
-        <v>30.32127552983542</v>
+        <v>6.738061228852315</v>
       </c>
       <c r="G48">
-        <v>56.47000960765119</v>
+        <v>12.54889102392249</v>
       </c>
       <c r="H48">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I48">
-        <v>352.4219024851075</v>
+        <v>78.3159783300239</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>123.8160247766402</v>
+        <v>27.51467217258672</v>
       </c>
       <c r="C49">
-        <v>13.092771268657</v>
+        <v>2.909504726368223</v>
       </c>
       <c r="D49">
-        <v>37.02796613782177</v>
+        <v>8.228436919515948</v>
       </c>
       <c r="E49">
-        <v>90.90666394680269</v>
+        <v>20.20148087706727</v>
       </c>
       <c r="F49">
-        <v>52.52078082846491</v>
+        <v>11.67128462854776</v>
       </c>
       <c r="G49">
-        <v>62.98577994699559</v>
+        <v>13.99683998822124</v>
       </c>
       <c r="H49">
-        <v>9.561703882312163</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I49">
-        <v>389.9116907876943</v>
+        <v>86.64704239726542</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>22.5381053796319</v>
+        <v>101.4214742083436</v>
       </c>
       <c r="C2">
-        <v>2.645004296698384</v>
+        <v>11.90251933514273</v>
       </c>
       <c r="D2">
-        <v>11.69304193825951</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E2">
-        <v>10.10074043853363</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F2">
-        <v>12.27289723826672</v>
+        <v>55.22803757220021</v>
       </c>
       <c r="G2">
-        <v>27.99367997644248</v>
+        <v>125.9715598939912</v>
       </c>
       <c r="H2">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I2">
-        <v>87.95174362948539</v>
+        <v>395.7828463326842</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>22.58595698341031</v>
+        <v>101.6368064253464</v>
       </c>
       <c r="C3">
-        <v>3.041754941203142</v>
+        <v>13.68789723541414</v>
       </c>
       <c r="D3">
-        <v>11.69304193825951</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E3">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F3">
-        <v>12.63386480409809</v>
+        <v>56.85239161844139</v>
       </c>
       <c r="G3">
-        <v>23.64983308354622</v>
+        <v>106.4242488759581</v>
       </c>
       <c r="H3">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I3">
-        <v>84.85262917846599</v>
+        <v>381.836831303097</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>23.06447302119444</v>
+        <v>103.7901285953749</v>
       </c>
       <c r="C4">
-        <v>1.851503007688869</v>
+        <v>8.331763534599911</v>
       </c>
       <c r="D4">
-        <v>7.795361292173005</v>
+        <v>35.07912581477851</v>
       </c>
       <c r="E4">
-        <v>8.344089927484307</v>
+        <v>37.54840467367939</v>
       </c>
       <c r="F4">
-        <v>9.144511667728143</v>
+        <v>41.15030250477664</v>
       </c>
       <c r="G4">
-        <v>15.92743860728624</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H4">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I4">
-        <v>66.5995604313235</v>
+        <v>299.6980219409557</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>26.74904651213214</v>
+        <v>120.3707093045946</v>
       </c>
       <c r="C5">
-        <v>4.099756659882495</v>
+        <v>18.44890496947123</v>
       </c>
       <c r="D5">
-        <v>15.59072258434601</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E5">
-        <v>7.904927299721972</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F5">
-        <v>13.23547741381705</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G5">
-        <v>17.85803722635124</v>
+        <v>80.36116751858054</v>
       </c>
       <c r="H5">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I5">
-        <v>86.61842496567215</v>
+        <v>389.7829123455246</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>28.08889141792765</v>
+        <v>126.4000113806745</v>
       </c>
       <c r="C6">
-        <v>2.512754081863465</v>
+        <v>11.30739336838559</v>
       </c>
       <c r="D6">
-        <v>14.72457132966013</v>
+        <v>66.26057098347054</v>
       </c>
       <c r="E6">
-        <v>8.344089927484307</v>
+        <v>37.54840467367939</v>
       </c>
       <c r="F6">
-        <v>13.837090023536</v>
+        <v>62.26690510591202</v>
       </c>
       <c r="G6">
-        <v>16.41008826205249</v>
+        <v>73.84539717923619</v>
       </c>
       <c r="H6">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I6">
-        <v>84.62575940417679</v>
+        <v>380.8159173187956</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>27.70607858770035</v>
+        <v>124.6773536446516</v>
       </c>
       <c r="C7">
-        <v>5.157758378561849</v>
+        <v>23.20991270352832</v>
       </c>
       <c r="D7">
-        <v>11.25996631091656</v>
+        <v>50.66984839912454</v>
       </c>
       <c r="E7">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F7">
-        <v>13.23547741381705</v>
+        <v>59.5596483621767</v>
       </c>
       <c r="G7">
-        <v>15.92743860728624</v>
+        <v>71.67347373278805</v>
       </c>
       <c r="H7">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I7">
-        <v>84.53489672623077</v>
+        <v>380.4070352680384</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>32.39553575798472</v>
+        <v>145.7799109109312</v>
       </c>
       <c r="C8">
-        <v>5.819009452736446</v>
+        <v>26.18554253731401</v>
       </c>
       <c r="D8">
-        <v>15.59072258434601</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E8">
-        <v>10.9790656940583</v>
+        <v>49.40579562326236</v>
       </c>
       <c r="F8">
-        <v>9.866446799390889</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G8">
-        <v>12.06624136915624</v>
+        <v>54.29808616120308</v>
       </c>
       <c r="H8">
-        <v>1.652640177189757</v>
+        <v>7.436880797353907</v>
       </c>
       <c r="I8">
-        <v>88.36966183486236</v>
+        <v>397.6634782568806</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>37.51565736227473</v>
+        <v>168.8204581302364</v>
       </c>
       <c r="C9">
-        <v>1.58700257801903</v>
+        <v>7.141511601085638</v>
       </c>
       <c r="D9">
-        <v>9.527663801544783</v>
+        <v>42.87448710695154</v>
       </c>
       <c r="E9">
-        <v>9.661577810771304</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F9">
-        <v>7.339673838571271</v>
+        <v>33.02853227357072</v>
       </c>
       <c r="G9">
-        <v>10.13564275009124</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="I9">
-        <v>75.76721814127235</v>
+        <v>340.9524816357257</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>35.84085123003034</v>
+        <v>161.2838305351366</v>
       </c>
       <c r="C10">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D10">
-        <v>9.09458817420184</v>
+        <v>40.92564678390828</v>
       </c>
       <c r="E10">
-        <v>15.80985459944394</v>
+        <v>71.14434569749776</v>
       </c>
       <c r="F10">
-        <v>5.895803575245775</v>
+        <v>26.53111608860598</v>
       </c>
       <c r="G10">
-        <v>5.309146202428745</v>
+        <v>23.89115791092935</v>
       </c>
       <c r="H10">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I10">
-        <v>73.11208673907934</v>
+        <v>329.0043903258571</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>25.88771764412072</v>
+        <v>116.4947293985432</v>
       </c>
       <c r="C11">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D11">
-        <v>7.362285664830063</v>
+        <v>33.13028549173527</v>
       </c>
       <c r="E11">
-        <v>13.17487883286996</v>
+        <v>59.28695474791482</v>
       </c>
       <c r="F11">
-        <v>2.647095482763409</v>
+        <v>11.91192967243534</v>
       </c>
       <c r="G11">
-        <v>8.205044131026243</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H11">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I11">
-        <v>58.30661449850416</v>
+        <v>262.3797652432687</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>23.25587943630808</v>
+        <v>104.6514574633864</v>
       </c>
       <c r="C12">
-        <v>2.380503867028546</v>
+        <v>10.71226740162846</v>
       </c>
       <c r="D12">
-        <v>6.496134410144171</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E12">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F12">
-        <v>2.526772960819618</v>
+        <v>11.37047832368828</v>
       </c>
       <c r="G12">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H12">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I12">
-        <v>50.65745734290154</v>
+        <v>227.9585580430569</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>16.93946773755773</v>
+        <v>76.22760481900977</v>
       </c>
       <c r="C13">
-        <v>0.5290008593396768</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D13">
-        <v>5.629983155458282</v>
+        <v>25.33492419956227</v>
       </c>
       <c r="E13">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F13">
-        <v>1.925160351100661</v>
+        <v>8.663221579952976</v>
       </c>
       <c r="G13">
-        <v>3.861197238129996</v>
+        <v>17.37538757158498</v>
       </c>
       <c r="H13">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I13">
-        <v>40.53912911729122</v>
+        <v>182.4260810278105</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>8.70899188767093</v>
+        <v>39.19046349451916</v>
       </c>
       <c r="C14">
-        <v>0.2645004296698384</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D14">
-        <v>2.165378136714723</v>
+        <v>9.744201615216257</v>
       </c>
       <c r="E14">
-        <v>7.465764671959643</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F14">
-        <v>1.443870263325496</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G14">
-        <v>1.447948964298749</v>
+        <v>6.51577033934437</v>
       </c>
       <c r="I14">
-        <v>21.49645435363938</v>
+        <v>96.73404459137717</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>7.082037359204931</v>
+        <v>31.86916811642218</v>
       </c>
       <c r="C15">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D15">
-        <v>3.464605018743558</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E15">
-        <v>2.634975766573991</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F15">
-        <v>3.60967565831374</v>
+        <v>16.24354046241183</v>
       </c>
       <c r="G15">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I15">
-        <v>20.1302935805119</v>
+        <v>90.58632111230355</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>5.790044057187815</v>
+        <v>26.05519825734515</v>
       </c>
       <c r="C16">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="F16">
-        <v>1.564192785269288</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G16">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I16">
-        <v>10.56098640529787</v>
+        <v>47.52443882384038</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>3.158205849375171</v>
+        <v>14.21192632218827</v>
       </c>
       <c r="C17">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D17">
-        <v>1.299226882028834</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="F17">
-        <v>1.082902697494122</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G17">
-        <v>0.9652993095324991</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="I17">
-        <v>6.637884953265544</v>
+        <v>29.87048228969495</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.488283396477407</v>
+        <v>11.19727528414834</v>
       </c>
       <c r="C18">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D18">
-        <v>0.4330756273429447</v>
+        <v>1.948840323043251</v>
       </c>
       <c r="F18">
-        <v>0.6016126097189567</v>
+        <v>2.707256743735305</v>
       </c>
       <c r="G18">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I18">
-        <v>5.585820467439226</v>
+        <v>25.13619210347652</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.392580188920585</v>
+        <v>10.76661085014263</v>
       </c>
       <c r="C19">
-        <v>0.6612510741745961</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D19">
-        <v>0.8661512546858895</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="E19">
-        <v>1.756650511049328</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F19">
-        <v>1.443870263325496</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G19">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I19">
-        <v>9.051101911220893</v>
+        <v>40.72995860049402</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>4.402347547613877</v>
+        <v>19.81056396426244</v>
       </c>
       <c r="C20">
-        <v>0.2645004296698384</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="F20">
-        <v>1.323547741381705</v>
+        <v>5.955964836217671</v>
       </c>
       <c r="G20">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="I20">
-        <v>10.33424261156167</v>
+        <v>46.50409175202749</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>14.83399717130762</v>
+        <v>66.75298727088432</v>
       </c>
       <c r="C21">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D21">
-        <v>9.527663801544783</v>
+        <v>42.87448710695154</v>
       </c>
       <c r="E21">
-        <v>2.634975766573991</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F21">
-        <v>4.451933311920279</v>
+        <v>20.03369990364126</v>
       </c>
       <c r="G21">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H21">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I21">
-        <v>36.66135049651618</v>
+        <v>164.9760772343228</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>25.4092016063366</v>
+        <v>114.3414072285148</v>
       </c>
       <c r="C22">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D22">
-        <v>12.5591931929454</v>
+        <v>56.51636936825429</v>
       </c>
       <c r="E22">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F22">
-        <v>7.941286448290229</v>
+        <v>35.73578901730603</v>
       </c>
       <c r="G22">
-        <v>14.96213929775374</v>
+        <v>67.32962683989184</v>
       </c>
       <c r="H22">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I22">
-        <v>76.8753546153966</v>
+        <v>345.9390957692847</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>32.82620019199041</v>
+        <v>147.7179008639568</v>
       </c>
       <c r="C23">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D23">
-        <v>6.063058782801227</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E23">
-        <v>14.05320408839462</v>
+        <v>63.23941839777578</v>
       </c>
       <c r="F23">
-        <v>4.692578355807862</v>
+        <v>21.11660260113538</v>
       </c>
       <c r="G23">
-        <v>7.722394476259993</v>
+        <v>34.75077514316997</v>
       </c>
       <c r="H23">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I23">
-        <v>66.22636944752738</v>
+        <v>298.0186625138731</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>31.82131651264378</v>
+        <v>143.195924306897</v>
       </c>
       <c r="C24">
-        <v>2.116003437358707</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D24">
-        <v>10.39381505623067</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E24">
-        <v>12.2965535773453</v>
+        <v>55.33449109805383</v>
       </c>
       <c r="F24">
-        <v>6.497416184964732</v>
+        <v>29.23837283234129</v>
       </c>
       <c r="G24">
-        <v>13.99683998822124</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H24">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I24">
-        <v>77.83021911841719</v>
+        <v>350.2359860328772</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>27.51467217258672</v>
+        <v>123.8160247766402</v>
       </c>
       <c r="C25">
-        <v>2.909504726368223</v>
+        <v>13.092771268657</v>
       </c>
       <c r="D25">
-        <v>8.228436919515948</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E25">
-        <v>20.20148087706727</v>
+        <v>90.90666394680269</v>
       </c>
       <c r="F25">
-        <v>11.67128462854776</v>
+        <v>52.52078082846491</v>
       </c>
       <c r="G25">
-        <v>13.99683998822124</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H25">
-        <v>2.124823084958259</v>
+        <v>9.561703882312163</v>
       </c>
       <c r="I25">
-        <v>86.64704239726542</v>
+        <v>389.9116907876943</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>23.20802783252968</v>
+        <v>104.4361252463835</v>
       </c>
       <c r="C26">
-        <v>2.248253652193627</v>
+        <v>10.11714143487132</v>
       </c>
       <c r="D26">
-        <v>10.39381505623067</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E26">
-        <v>10.10074043853363</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F26">
-        <v>13.11515489187325</v>
+        <v>59.01819701342964</v>
       </c>
       <c r="G26">
-        <v>33.30282617887122</v>
+        <v>149.8627178049205</v>
       </c>
       <c r="H26">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I26">
-        <v>93.07709241188483</v>
+        <v>418.8469158534817</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>21.91603453051254</v>
+        <v>98.62215538730651</v>
       </c>
       <c r="C27">
-        <v>3.4385055857079</v>
+        <v>15.47327513568555</v>
       </c>
       <c r="D27">
-        <v>10.39381505623067</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E27">
-        <v>8.783252555246641</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F27">
-        <v>14.31838011131117</v>
+        <v>64.43271050090026</v>
       </c>
       <c r="G27">
-        <v>30.40692825027374</v>
+        <v>136.8311771262318</v>
       </c>
       <c r="H27">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I27">
-        <v>89.72909899705117</v>
+        <v>403.7809454867303</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>21.67677651162048</v>
+        <v>97.54549430229223</v>
       </c>
       <c r="C28">
-        <v>1.454752363184111</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D28">
-        <v>6.063058782801227</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E28">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F28">
-        <v>7.700641404402646</v>
+        <v>34.65288631981191</v>
       </c>
       <c r="G28">
-        <v>16.41008826205249</v>
+        <v>73.84539717923619</v>
       </c>
       <c r="H28">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I28">
-        <v>64.55349475200968</v>
+        <v>290.4907263840435</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>26.79689811591053</v>
+        <v>120.5860415215974</v>
       </c>
       <c r="C29">
-        <v>4.099756659882495</v>
+        <v>18.44890496947123</v>
       </c>
       <c r="D29">
-        <v>19.48840323043251</v>
+        <v>87.6978145369463</v>
       </c>
       <c r="E29">
-        <v>13.17487883286996</v>
+        <v>59.28695474791482</v>
       </c>
       <c r="F29">
-        <v>12.63386480409809</v>
+        <v>56.85239161844139</v>
       </c>
       <c r="G29">
-        <v>24.61513239307873</v>
+        <v>110.7680957688543</v>
       </c>
       <c r="H29">
-        <v>1.888731631074008</v>
+        <v>8.499292339833035</v>
       </c>
       <c r="I29">
-        <v>102.6976656673463</v>
+        <v>462.1394955030585</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>23.87795028542743</v>
+        <v>107.4507762844234</v>
       </c>
       <c r="C30">
-        <v>1.983753222523788</v>
+        <v>8.926889501357048</v>
       </c>
       <c r="D30">
-        <v>15.59072258434601</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E30">
-        <v>7.02660204419731</v>
+        <v>31.61970919888789</v>
       </c>
       <c r="F30">
-        <v>14.07773506742359</v>
+        <v>63.34980780340614</v>
       </c>
       <c r="G30">
-        <v>12.06624136915624</v>
+        <v>54.29808616120308</v>
       </c>
       <c r="H30">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I30">
-        <v>75.56737038861137</v>
+        <v>340.0531667487511</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>28.51955585193335</v>
+        <v>128.3380013337002</v>
       </c>
       <c r="C31">
-        <v>3.4385055857079</v>
+        <v>15.47327513568555</v>
       </c>
       <c r="D31">
-        <v>15.15764695700306</v>
+        <v>68.20941130651379</v>
       </c>
       <c r="E31">
-        <v>8.783252555246641</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F31">
-        <v>12.03225219437913</v>
+        <v>54.14513487470609</v>
       </c>
       <c r="G31">
-        <v>16.89273791681874</v>
+        <v>76.01732062568432</v>
       </c>
       <c r="H31">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I31">
-        <v>86.0044083305101</v>
+        <v>387.0198374872954</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>33.11330981466089</v>
+        <v>149.009894165974</v>
       </c>
       <c r="C32">
-        <v>4.893257948892011</v>
+        <v>22.01966077001405</v>
       </c>
       <c r="D32">
-        <v>14.29149570231717</v>
+        <v>64.3117306604273</v>
       </c>
       <c r="E32">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F32">
-        <v>9.866446799390889</v>
+        <v>44.399010597259</v>
       </c>
       <c r="G32">
-        <v>21.71923446448123</v>
+        <v>97.73655509016555</v>
       </c>
       <c r="H32">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I32">
-        <v>95.60410506545941</v>
+        <v>430.2184727945674</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>38.08987660761572</v>
+        <v>171.4044447342706</v>
       </c>
       <c r="C33">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D33">
-        <v>6.929210037487116</v>
+        <v>31.18144516869202</v>
       </c>
       <c r="E33">
-        <v>8.783252555246641</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F33">
-        <v>6.377093663020941</v>
+        <v>28.69692148359423</v>
       </c>
       <c r="G33">
-        <v>9.170343440558744</v>
+        <v>41.26654548251435</v>
       </c>
       <c r="I33">
-        <v>70.54002823744344</v>
+        <v>317.4301270684953</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>39.52542472096804</v>
+        <v>177.8644112443561</v>
       </c>
       <c r="C34">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D34">
-        <v>6.063058782801227</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E34">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F34">
-        <v>6.497416184964732</v>
+        <v>29.23837283234129</v>
       </c>
       <c r="G34">
-        <v>3.378547583363749</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="H34">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I34">
-        <v>71.70407279605263</v>
+        <v>322.6683275822367</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>27.65822698392196</v>
+        <v>124.4620214276488</v>
       </c>
       <c r="C35">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D35">
-        <v>5.629983155458282</v>
+        <v>25.33492419956227</v>
       </c>
       <c r="E35">
-        <v>11.85739094958296</v>
+        <v>53.35825927312332</v>
       </c>
       <c r="F35">
-        <v>3.369030614426157</v>
+        <v>15.16063776491771</v>
       </c>
       <c r="G35">
-        <v>10.13564275009124</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="H35">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I35">
-        <v>59.51920800575385</v>
+        <v>267.8364360258924</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>26.31838207812642</v>
+        <v>118.4327193515688</v>
       </c>
       <c r="C36">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D36">
-        <v>3.897680646086502</v>
+        <v>17.53956290738926</v>
       </c>
       <c r="E36">
-        <v>14.49236671615695</v>
+        <v>65.21565022270627</v>
       </c>
       <c r="F36">
-        <v>2.887740526650992</v>
+        <v>12.99483236992946</v>
       </c>
       <c r="G36">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H36">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I36">
-        <v>53.20570105669513</v>
+        <v>239.425654755128</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>18.56642226602374</v>
+        <v>83.54890019710676</v>
       </c>
       <c r="C37">
-        <v>0.2645004296698384</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D37">
-        <v>4.763831900772391</v>
+        <v>21.43724355347577</v>
       </c>
       <c r="E37">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F37">
-        <v>3.850320702201323</v>
+        <v>17.32644315990595</v>
       </c>
       <c r="G37">
-        <v>4.826496547662497</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H37">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I37">
-        <v>43.28365782039425</v>
+        <v>194.7764601917741</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>9.570320755682339</v>
+        <v>43.06644340057053</v>
       </c>
       <c r="C38">
-        <v>0.2645004296698384</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D38">
-        <v>2.165378136714723</v>
+        <v>9.744201615216257</v>
       </c>
       <c r="E38">
-        <v>7.465764671959643</v>
+        <v>33.59594102381838</v>
       </c>
       <c r="F38">
-        <v>1.684515307213079</v>
+        <v>7.580318882458855</v>
       </c>
       <c r="G38">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I38">
-        <v>23.56372757507087</v>
+        <v>106.0367740878189</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>8.278327453665222</v>
+        <v>37.25247354149349</v>
       </c>
       <c r="C39">
-        <v>1.454752363184111</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="D39">
-        <v>3.897680646086502</v>
+        <v>17.53956290738926</v>
       </c>
       <c r="E39">
-        <v>1.756650511049328</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F39">
-        <v>2.647095482763409</v>
+        <v>11.91192967243534</v>
       </c>
       <c r="G39">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I39">
-        <v>19.96510507581357</v>
+        <v>89.84297284116106</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>6.364263302528755</v>
+        <v>28.63918486137941</v>
       </c>
       <c r="C40">
-        <v>1.454752363184111</v>
+        <v>6.546385634328502</v>
       </c>
       <c r="F40">
-        <v>2.045482873044453</v>
+        <v>9.204672928700035</v>
       </c>
       <c r="G40">
-        <v>3.378547583363749</v>
+        <v>15.20346412513687</v>
       </c>
       <c r="I40">
-        <v>13.24304612212107</v>
+        <v>59.59370754954481</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.923831509829758</v>
+        <v>17.6572417942339</v>
       </c>
       <c r="C41">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D41">
-        <v>1.299226882028834</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="F41">
-        <v>1.082902697494122</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G41">
-        <v>1.447948964298749</v>
+        <v>6.51577033934437</v>
       </c>
       <c r="I41">
-        <v>7.886160268486382</v>
+        <v>35.48772120818872</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.349612264488816</v>
+        <v>15.07325519019968</v>
       </c>
       <c r="C42">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D42">
-        <v>0.8661512546858895</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="F42">
-        <v>0.6016126097189567</v>
+        <v>2.707256743735305</v>
       </c>
       <c r="G42">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I42">
-        <v>6.880224962793579</v>
+        <v>30.96101233257111</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.440431792698996</v>
+        <v>10.98194306714549</v>
       </c>
       <c r="C43">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D43">
-        <v>0.8661512546858895</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="E43">
-        <v>0.8783252555246638</v>
+        <v>3.952463649860986</v>
       </c>
       <c r="F43">
-        <v>1.082902697494122</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G43">
-        <v>2.895897928597497</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="I43">
-        <v>8.560459573505927</v>
+        <v>38.52206808077668</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>4.354495943835465</v>
+        <v>19.59523174725958</v>
       </c>
       <c r="C44">
-        <v>0.2645004296698384</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="F44">
-        <v>1.443870263325496</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G44">
-        <v>5.309146202428745</v>
+        <v>23.89115791092935</v>
       </c>
       <c r="I44">
-        <v>11.37201283925954</v>
+        <v>51.17405777666794</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>14.92970037886445</v>
+        <v>67.18365170489002</v>
       </c>
       <c r="C45">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D45">
-        <v>5.196907528115336</v>
+        <v>23.38608387651902</v>
       </c>
       <c r="E45">
-        <v>2.19581313881166</v>
+        <v>9.881159124652468</v>
       </c>
       <c r="F45">
-        <v>6.016126097189567</v>
+        <v>27.07256743735304</v>
       </c>
       <c r="G45">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H45">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I45">
-        <v>34.02351049591902</v>
+        <v>153.1057972316356</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>26.2226788705696</v>
+        <v>118.0020549175632</v>
       </c>
       <c r="C46">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D46">
-        <v>8.228436919515948</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E46">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F46">
-        <v>8.061608970234019</v>
+        <v>36.27724036605309</v>
       </c>
       <c r="G46">
-        <v>19.78863584541623</v>
+        <v>89.04886130437306</v>
       </c>
       <c r="H46">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I46">
-        <v>78.0403942461366</v>
+        <v>351.1817741076147</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>33.40041943733138</v>
+        <v>150.3018874679911</v>
       </c>
       <c r="C47">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="D47">
-        <v>7.362285664830063</v>
+        <v>33.13028549173527</v>
       </c>
       <c r="E47">
-        <v>13.17487883286996</v>
+        <v>59.28695474791482</v>
       </c>
       <c r="F47">
-        <v>4.211288268032697</v>
+        <v>18.95079720614713</v>
       </c>
       <c r="G47">
-        <v>8.687693785792492</v>
+        <v>39.09462203606623</v>
       </c>
       <c r="H47">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I47">
-        <v>67.4694080872456</v>
+        <v>303.6123363926051</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>30.52932321062666</v>
+        <v>137.3819544478199</v>
       </c>
       <c r="C48">
-        <v>2.248253652193627</v>
+        <v>10.11714143487132</v>
       </c>
       <c r="D48">
-        <v>11.69304193825951</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E48">
-        <v>13.61404146063229</v>
+        <v>61.26318657284531</v>
       </c>
       <c r="F48">
-        <v>6.738061228852315</v>
+        <v>30.32127552983542</v>
       </c>
       <c r="G48">
-        <v>12.54889102392249</v>
+        <v>56.47000960765119</v>
       </c>
       <c r="H48">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I48">
-        <v>78.3159783300239</v>
+        <v>352.4219024851075</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>27.51467217258672</v>
+        <v>123.8160247766402</v>
       </c>
       <c r="C49">
-        <v>2.909504726368223</v>
+        <v>13.092771268657</v>
       </c>
       <c r="D49">
-        <v>8.228436919515948</v>
+        <v>37.02796613782177</v>
       </c>
       <c r="E49">
-        <v>20.20148087706727</v>
+        <v>90.90666394680269</v>
       </c>
       <c r="F49">
-        <v>11.67128462854776</v>
+        <v>52.52078082846491</v>
       </c>
       <c r="G49">
-        <v>13.99683998822124</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H49">
-        <v>2.124823084958259</v>
+        <v>9.561703882312163</v>
       </c>
       <c r="I49">
-        <v>86.64704239726542</v>
+        <v>389.9116907876943</v>
       </c>
     </row>
   </sheetData>
